--- a/Results/RFE/Swallowing/MFCCs/swallowing_sillabe_rfe.xlsx
+++ b/Results/RFE/Swallowing/MFCCs/swallowing_sillabe_rfe.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Validation</t>
+          <t>F1 train</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8342857142857142</v>
+        <v>0.9295774647887324</v>
       </c>
     </row>
     <row r="3">
@@ -617,7 +617,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7857142857142858</v>
+        <v>0.9253731343283582</v>
       </c>
     </row>
     <row r="4">
@@ -672,7 +672,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8262271062271062</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8457142857142855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'activation': 'relu', 'alpha': 0.0001, 'hidden_layer_sizes': (16,), 'learning_rate': 'constant'}</t>
+          <t>{'activation': 'tanh', 'alpha': 0.0001, 'hidden_layer_sizes': (64,), 'learning_rate': 'constant'}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -752,37 +752,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6" t="n">
-        <v>0.45</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7088607594936709</v>
       </c>
     </row>
     <row r="7">
@@ -837,7 +837,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O7" t="n">
-        <v>0.868095238095238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +892,7 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7615634365634365</v>
+        <v>0.9411764705882353</v>
       </c>
     </row>
     <row r="9">
@@ -947,7 +947,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8033559577677224</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="10">
@@ -1002,7 +1002,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="O10" t="n">
-        <v>0.721978021978022</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="11">
@@ -1057,7 +1057,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6078431372549019</v>
       </c>
     </row>
     <row r="12">
@@ -1112,7 +1112,7 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8697619047619047</v>
+        <v>0.8055555555555556</v>
       </c>
     </row>
     <row r="13">
@@ -1167,7 +1167,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8432234432234432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1222,7 +1222,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8291208791208792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1277,7 +1277,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8405128205128205</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="16">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'activation': 'relu', 'alpha': 0.0001, 'hidden_layer_sizes': (32,), 'learning_rate': 'constant'}</t>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'hidden_layer_sizes': (64, 32), 'learning_rate': 'constant'}</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1302,37 +1302,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16" t="n">
-        <v>0.45</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7605633802816901</v>
       </c>
     </row>
   </sheetData>
